--- a/INTLINE/data/134/DEUSTATIS/Local units - construction.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Local units - construction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="44">
   <si>
     <t>Local units, persons employed, remunerations, hours worked,
 turnover in the main construction industry (local units with
@@ -145,7 +145,7 @@
     <t>From January 2007 including persons employed in other areas.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:10:56</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:49:34</t>
   </si>
 </sst>
 </file>
@@ -6597,11 +6597,11 @@
       <c r="FC10" t="n" s="10">
         <v>523209.0</v>
       </c>
-      <c r="FD10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="FE10" t="s" s="10">
-        <v>37</v>
+      <c r="FD10" t="n" s="10">
+        <v>523717.0</v>
+      </c>
+      <c r="FE10" t="n" s="10">
+        <v>529148.0</v>
       </c>
       <c r="FF10" t="s" s="10">
         <v>37</v>
@@ -7109,11 +7109,11 @@
       <c r="FC11" t="n" s="10">
         <v>38156.0</v>
       </c>
-      <c r="FD11" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="FE11" t="s" s="10">
-        <v>37</v>
+      <c r="FD11" t="n" s="10">
+        <v>44391.0</v>
+      </c>
+      <c r="FE11" t="n" s="10">
+        <v>57697.0</v>
       </c>
       <c r="FF11" t="s" s="10">
         <v>37</v>
@@ -7204,7 +7204,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:11:01&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:49:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Local units - construction.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Local units - construction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="44">
   <si>
     <t>Local units, persons employed, remunerations, hours worked,
 turnover in the main construction industry (local units with
@@ -145,7 +145,7 @@
     <t>From January 2007 including persons employed in other areas.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:49:34</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 07:00:39</t>
   </si>
 </sst>
 </file>
@@ -6603,8 +6603,8 @@
       <c r="FE10" t="n" s="10">
         <v>529148.0</v>
       </c>
-      <c r="FF10" t="s" s="10">
-        <v>37</v>
+      <c r="FF10" t="n" s="10">
+        <v>530623.0</v>
       </c>
       <c r="FG10" t="s" s="10">
         <v>37</v>
@@ -7115,8 +7115,8 @@
       <c r="FE11" t="n" s="10">
         <v>57697.0</v>
       </c>
-      <c r="FF11" t="s" s="10">
-        <v>37</v>
+      <c r="FF11" t="n" s="10">
+        <v>52058.0</v>
       </c>
       <c r="FG11" t="s" s="10">
         <v>37</v>
@@ -7204,7 +7204,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:49:39&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 07:00:44&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>